--- a/biology/Botanique/Disocactus_anguliger/Disocactus_anguliger.xlsx
+++ b/biology/Botanique/Disocactus_anguliger/Disocactus_anguliger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Disocactus anguliger est une espèce de plantes de la famille des Cactaceae.
 Elle est originaire des forêts tropicales d'Amérique centrale et du Sud. Les feuilles ont une couleur vert vif et une texture lisse.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Disocactus anguliger (Lem.) M.Á.Cruz &amp; S.Arias[1].
-L'espèce a été initialement classée dans le genre Phyllocactus sous le basionyme Phyllocactus anguliger Lem.[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Disocactus anguliger (Lem.) M.Á.Cruz &amp; S.Arias.
+L'espèce a été initialement classée dans le genre Phyllocactus sous le basionyme Phyllocactus anguliger Lem..
 Elle a ensuite été classée dans le genre Epiphyllum jusqu'en 2016.
-Disocactus anguliger a pour synonymes[1] :
+Disocactus anguliger a pour synonymes :
 Cereus mexicanus Lem.
 Cereus mexicanus Lem. ex C.F.Först.
 Epiphyllum anguliger (Lem.) G.Don
